--- a/teste/DP_Plano_de_Teste_-_Compartilhar_Carência.xlsx
+++ b/teste/DP_Plano_de_Teste_-_Compartilhar_Carência.xlsx
@@ -52,18 +52,12 @@
     <t>Android</t>
   </si>
   <si>
-    <t>CT001</t>
-  </si>
-  <si>
     <t xml:space="preserve"> oficina escolhida</t>
   </si>
   <si>
     <t>CT005</t>
   </si>
   <si>
-    <t>CT002</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -106,16 +100,22 @@
     <t>Confirmando compartilhamento</t>
   </si>
   <si>
-    <t>Clicar no botão "Compartilhar"</t>
-  </si>
-  <si>
-    <t>O usuário clica no botão "Publicar".</t>
-  </si>
-  <si>
-    <t>O sistema envia a mensagem e solicita que o Facebook poste a mensagem na linha do tempo do usuário.</t>
-  </si>
-  <si>
     <t>Resultado da busca do aplicativo é exibida na "TIMELINE" do usuário em sua conta no "FACEBOOK".</t>
+  </si>
+  <si>
+    <t>CT-FP001</t>
+  </si>
+  <si>
+    <t>CT-FP002</t>
+  </si>
+  <si>
+    <t>Esta conectado na internet, logado com sua conta da rede social.</t>
+  </si>
+  <si>
+    <t>Clicar no botão "Publicar"</t>
+  </si>
+  <si>
+    <t>O sistema envia a mensagem e solicita que o Facebook poste a mensagem do aplicativo na linha do tempo do usuário.</t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -611,23 +611,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -638,55 +649,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:E17"/>
+      <selection activeCell="C19" sqref="C19:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,61 +1044,61 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="53" t="s">
+      <c r="B1" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
       <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="22"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -1114,9 +1114,9 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -1164,37 +1164,37 @@
       <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
+      <c r="F6" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
+      <c r="M6" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="49"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="D7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>26</v>
+      <c r="E7" s="56" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="28"/>
@@ -1212,8 +1212,8 @@
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="9" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="48"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
@@ -1264,22 +1264,22 @@
     </row>
     <row r="11" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="62" t="s">
+      <c r="D11" s="56" t="s">
         <v>32</v>
       </c>
+      <c r="E11" s="56" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
@@ -1287,8 +1287,8 @@
       <c r="J11" s="25"/>
       <c r="K11" s="26"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="33" t="s">
-        <v>33</v>
+      <c r="M11" s="58" t="s">
+        <v>28</v>
       </c>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -1298,8 +1298,8 @@
       <c r="A12" s="19"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -1316,8 +1316,8 @@
       <c r="A13" s="20"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="64"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="59"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
@@ -1350,18 +1350,18 @@
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="37"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="64"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="26"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="33"/>
+      <c r="M15" s="58"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="26"/>
@@ -1370,8 +1370,8 @@
       <c r="A16" s="19"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1386,10 +1386,10 @@
     </row>
     <row r="17" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -1405,10 +1405,10 @@
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -1416,7 +1416,7 @@
       <c r="J19" s="25"/>
       <c r="K19" s="26"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="33"/>
+      <c r="M19" s="58"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="26"/>
@@ -1425,8 +1425,8 @@
       <c r="A20" s="19"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -1443,8 +1443,8 @@
       <c r="A21" s="20"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -1460,22 +1460,22 @@
     <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="34" t="s">
-        <v>19</v>
-      </c>
       <c r="F23" s="24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -1483,8 +1483,8 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="33" t="s">
-        <v>20</v>
+      <c r="M23" s="58" t="s">
+        <v>18</v>
       </c>
       <c r="N23" s="25"/>
       <c r="O23" s="25"/>
@@ -1494,8 +1494,8 @@
       <c r="A24" s="19"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -1512,8 +1512,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -1529,8 +1529,8 @@
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="24"/>
@@ -1540,7 +1540,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="26"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="61"/>
+      <c r="M27" s="33"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="26"/>
@@ -1584,8 +1584,8 @@
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="24"/>
@@ -1595,7 +1595,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="26"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="61"/>
+      <c r="M31" s="33"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
@@ -1639,8 +1639,8 @@
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="24"/>
@@ -1650,7 +1650,7 @@
       <c r="J35" s="25"/>
       <c r="K35" s="26"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="61"/>
+      <c r="M35" s="33"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="26"/>
@@ -1694,8 +1694,8 @@
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="24"/>
@@ -1705,7 +1705,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="26"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="61"/>
+      <c r="M39" s="33"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="26"/>
@@ -1748,36 +1748,34 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="F39:K41"/>
-    <mergeCell ref="M39:P41"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="F35:K37"/>
-    <mergeCell ref="M35:P37"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:K29"/>
-    <mergeCell ref="M27:P29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:K33"/>
-    <mergeCell ref="M31:P33"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F23:K25"/>
+    <mergeCell ref="M23:P25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:K17"/>
+    <mergeCell ref="M15:P17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="F19:K21"/>
+    <mergeCell ref="M19:P21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:K13"/>
+    <mergeCell ref="M11:P13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F6:K9"/>
@@ -1793,34 +1791,36 @@
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:K13"/>
-    <mergeCell ref="M11:P13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="F19:K21"/>
-    <mergeCell ref="M19:P21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:K17"/>
-    <mergeCell ref="M15:P17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F23:K25"/>
-    <mergeCell ref="M23:P25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:K29"/>
+    <mergeCell ref="M27:P29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:K33"/>
+    <mergeCell ref="M31:P33"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="F35:K37"/>
+    <mergeCell ref="M35:P37"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="F39:K41"/>
+    <mergeCell ref="M39:P41"/>
   </mergeCells>
   <conditionalFormatting sqref="M6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/teste/DP_Plano_de_Teste_-_Compartilhar_Carência.xlsx
+++ b/teste/DP_Plano_de_Teste_-_Compartilhar_Carência.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Sistema:</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>O sistema envia a mensagem e solicita que o Facebook poste a mensagem do aplicativo na linha do tempo do usuário.</t>
+  </si>
+  <si>
+    <t>CT-FA001</t>
+  </si>
+  <si>
+    <t>Caso o usuário não esteja conectado em uma rede de internet, exibirá uma mensagem do tipo: "Não foi possível compartilhar, verifique sua conexão e tente novamente".</t>
   </si>
 </sst>
 </file>
@@ -595,7 +601,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -611,14 +617,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,56 +692,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1026,7 +1032,7 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C21"/>
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,61 +1050,61 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="37" t="s">
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="40" t="s">
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
       <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
       <c r="L2" s="22"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="49"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
@@ -1114,9 +1120,9 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
@@ -1167,33 +1173,33 @@
       <c r="F6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
       <c r="L6" s="8"/>
       <c r="M6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47"/>
     </row>
     <row r="7" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F7" s="27"/>
@@ -1212,8 +1218,8 @@
       <c r="A8" s="19"/>
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -1228,10 +1234,10 @@
     </row>
     <row r="9" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="54"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="23"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="30"/>
       <c r="G9" s="31"/>
       <c r="H9" s="31"/>
@@ -1266,16 +1272,16 @@
       <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="41" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="24" t="s">
@@ -1287,7 +1293,7 @@
       <c r="J11" s="25"/>
       <c r="K11" s="26"/>
       <c r="L11" s="9"/>
-      <c r="M11" s="58" t="s">
+      <c r="M11" s="33" t="s">
         <v>28</v>
       </c>
       <c r="N11" s="25"/>
@@ -1298,8 +1304,8 @@
       <c r="A12" s="19"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="27"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -1316,8 +1322,8 @@
       <c r="A13" s="20"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="F13" s="30"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
@@ -1349,19 +1355,31 @@
       <c r="P14" s="14"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="64"/>
+      <c r="A15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="40"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
       <c r="K15" s="26"/>
       <c r="L15" s="9"/>
-      <c r="M15" s="58"/>
+      <c r="M15" s="33" t="s">
+        <v>35</v>
+      </c>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="26"/>
@@ -1370,8 +1388,8 @@
       <c r="A16" s="19"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="27"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
@@ -1384,12 +1402,12 @@
       <c r="O16" s="28"/>
       <c r="P16" s="29"/>
     </row>
-    <row r="17" spans="1:16" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20"/>
-      <c r="B17" s="54"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="23"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="30"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
@@ -1405,10 +1423,10 @@
     <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
@@ -1416,7 +1434,7 @@
       <c r="J19" s="25"/>
       <c r="K19" s="26"/>
       <c r="L19" s="9"/>
-      <c r="M19" s="58"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="25"/>
       <c r="O19" s="25"/>
       <c r="P19" s="26"/>
@@ -1425,8 +1443,8 @@
       <c r="A20" s="19"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -1443,8 +1461,8 @@
       <c r="A21" s="20"/>
       <c r="B21" s="23"/>
       <c r="C21" s="23"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="30"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
@@ -1462,16 +1480,16 @@
       <c r="A23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="60" t="s">
+      <c r="C23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="61" t="s">
+      <c r="D23" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="24" t="s">
@@ -1483,7 +1501,7 @@
       <c r="J23" s="25"/>
       <c r="K23" s="26"/>
       <c r="L23" s="9"/>
-      <c r="M23" s="58" t="s">
+      <c r="M23" s="33" t="s">
         <v>18</v>
       </c>
       <c r="N23" s="25"/>
@@ -1494,8 +1512,8 @@
       <c r="A24" s="19"/>
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="27"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
@@ -1512,8 +1530,8 @@
       <c r="A25" s="20"/>
       <c r="B25" s="23"/>
       <c r="C25" s="23"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="30"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
@@ -1529,8 +1547,8 @@
     <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="24"/>
@@ -1540,7 +1558,7 @@
       <c r="J27" s="25"/>
       <c r="K27" s="26"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="33"/>
+      <c r="M27" s="64"/>
       <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="26"/>
@@ -1584,8 +1602,8 @@
     <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="24"/>
@@ -1595,7 +1613,7 @@
       <c r="J31" s="25"/>
       <c r="K31" s="26"/>
       <c r="L31" s="9"/>
-      <c r="M31" s="33"/>
+      <c r="M31" s="64"/>
       <c r="N31" s="25"/>
       <c r="O31" s="25"/>
       <c r="P31" s="26"/>
@@ -1639,8 +1657,8 @@
     <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="24"/>
@@ -1650,7 +1668,7 @@
       <c r="J35" s="25"/>
       <c r="K35" s="26"/>
       <c r="L35" s="9"/>
-      <c r="M35" s="33"/>
+      <c r="M35" s="64"/>
       <c r="N35" s="25"/>
       <c r="O35" s="25"/>
       <c r="P35" s="26"/>
@@ -1694,8 +1712,8 @@
     <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="24"/>
@@ -1705,7 +1723,7 @@
       <c r="J39" s="25"/>
       <c r="K39" s="26"/>
       <c r="L39" s="9"/>
-      <c r="M39" s="33"/>
+      <c r="M39" s="64"/>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
       <c r="P39" s="26"/>
@@ -1748,34 +1766,36 @@
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="F23:K25"/>
-    <mergeCell ref="M23:P25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="F15:K17"/>
-    <mergeCell ref="M15:P17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="F19:K21"/>
-    <mergeCell ref="M19:P21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:K13"/>
-    <mergeCell ref="M11:P13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="F39:K41"/>
+    <mergeCell ref="M39:P41"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="F35:K37"/>
+    <mergeCell ref="M35:P37"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="F27:K29"/>
+    <mergeCell ref="M27:P29"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="F31:K33"/>
+    <mergeCell ref="M31:P33"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:L4"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I2:I4"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D4"/>
     <mergeCell ref="F6:K9"/>
@@ -1791,36 +1811,34 @@
     <mergeCell ref="P2:P4"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="E7:E9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:L4"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="F27:K29"/>
-    <mergeCell ref="M27:P29"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="F31:K33"/>
-    <mergeCell ref="M31:P33"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="F35:K37"/>
-    <mergeCell ref="M35:P37"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="F39:K41"/>
-    <mergeCell ref="M39:P41"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:K13"/>
+    <mergeCell ref="M11:P13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="F19:K21"/>
+    <mergeCell ref="M19:P21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F15:K17"/>
+    <mergeCell ref="M15:P17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="F23:K25"/>
+    <mergeCell ref="M23:P25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="M6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
